--- a/cost/assets/formatsXlsx/Gastos.xlsx
+++ b/cost/assets/formatsXlsx/Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\apps\htdocs\tezlikv2\app\assets\formatsXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033BED8E-1276-458B-8FD2-FFD259062BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BA99A6-967B-48C1-BC75-0DC8849D6F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,24 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sergio Eduardo Velandia Obando</author>
+    <author>Daniel Ledesma</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7A1230A3-B483-4915-A7B8-3D542216488F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Teenus: Por favor cargar las cuentas de 4 digitos: Ej: 5102, 5212</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{7ECBB145-14F9-42CB-8FCD-C1F83E5EE378}">
       <text>
         <r>
           <rPr>
@@ -160,7 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,46 +186,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -305,12 +280,52 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -327,20 +342,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="numero_cuenta" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cuenta" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="valor" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="numero_cuenta" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cuenta" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,9 +393,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,26 +428,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,26 +463,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +642,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
